--- a/VT_REG1_RCA_V12.xlsx
+++ b/VT_REG1_RCA_V12.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr showObjects="placeholders" codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VEDA\Training material\DemoS_012\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VEDA_Release\Demo_S012_Vonline\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EF643554-13C0-4BAF-8B61-0F890278662E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FD615C9-0850-47D5-9D34-59466B013487}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1905" yWindow="1905" windowWidth="21600" windowHeight="11385" tabRatio="901"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="901" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EB1" sheetId="133" r:id="rId1"/>
@@ -44,12 +44,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Maurizio Gargiulo</author>
   </authors>
   <commentList>
-    <comment ref="C8" authorId="0" shapeId="0">
+    <comment ref="C8" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -67,14 +67,14 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Gary Goldstein</author>
     <author>Amit Kanudia</author>
     <author>Maurizio Gargiulo</author>
   </authors>
   <commentList>
-    <comment ref="J3" authorId="0" shapeId="0">
+    <comment ref="J3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
       <text>
         <r>
           <rPr>
@@ -188,7 +188,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O3" authorId="1" shapeId="0">
+    <comment ref="O3" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0200-000002000000}">
       <text>
         <r>
           <rPr>
@@ -214,7 +214,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P3" authorId="2" shapeId="0">
+    <comment ref="P3" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0200-000003000000}">
       <text>
         <r>
           <rPr>
@@ -287,7 +287,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q3" authorId="2" shapeId="0">
+    <comment ref="Q3" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0200-000004000000}">
       <text>
         <r>
           <rPr>
@@ -340,7 +340,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R3" authorId="2" shapeId="0">
+    <comment ref="R3" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0200-000005000000}">
       <text>
         <r>
           <rPr>
@@ -373,7 +373,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P13" authorId="2" shapeId="0">
+    <comment ref="P13" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0200-000006000000}">
       <text>
         <r>
           <rPr>
@@ -466,7 +466,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q13" authorId="1" shapeId="0">
+    <comment ref="Q13" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0200-000007000000}">
       <text>
         <r>
           <rPr>
@@ -491,7 +491,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R13" authorId="2" shapeId="0">
+    <comment ref="R13" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0200-000008000000}">
       <text>
         <r>
           <rPr>
@@ -554,7 +554,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J14" authorId="2" shapeId="0">
+    <comment ref="J14" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0200-000009000000}">
       <text>
         <r>
           <rPr>
@@ -802,14 +802,14 @@
 </file>
 
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Gary Goldstein</author>
     <author>Amit Kanudia</author>
     <author>Maurizio Gargiulo</author>
   </authors>
   <commentList>
-    <comment ref="L3" authorId="0" shapeId="0">
+    <comment ref="L3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000001000000}">
       <text>
         <r>
           <rPr>
@@ -923,7 +923,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q3" authorId="1" shapeId="0">
+    <comment ref="Q3" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0300-000002000000}">
       <text>
         <r>
           <rPr>
@@ -949,7 +949,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R3" authorId="2" shapeId="0">
+    <comment ref="R3" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0300-000003000000}">
       <text>
         <r>
           <rPr>
@@ -1022,7 +1022,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S3" authorId="2" shapeId="0">
+    <comment ref="S3" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0300-000004000000}">
       <text>
         <r>
           <rPr>
@@ -1075,7 +1075,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T3" authorId="2" shapeId="0">
+    <comment ref="T3" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0300-000005000000}">
       <text>
         <r>
           <rPr>
@@ -1108,7 +1108,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R9" authorId="2" shapeId="0">
+    <comment ref="R9" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0300-000006000000}">
       <text>
         <r>
           <rPr>
@@ -1201,7 +1201,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S9" authorId="1" shapeId="0">
+    <comment ref="S9" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0300-000007000000}">
       <text>
         <r>
           <rPr>
@@ -1226,7 +1226,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T9" authorId="2" shapeId="0">
+    <comment ref="T9" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0300-000008000000}">
       <text>
         <r>
           <rPr>
@@ -1289,7 +1289,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L10" authorId="2" shapeId="0">
+    <comment ref="L10" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0300-000009000000}">
       <text>
         <r>
           <rPr>
@@ -1537,14 +1537,14 @@
 </file>
 
 <file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Gary Goldstein</author>
     <author>Amit Kanudia</author>
     <author>Maurizio Gargiulo</author>
   </authors>
   <commentList>
-    <comment ref="J3" authorId="0" shapeId="0">
+    <comment ref="J3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000001000000}">
       <text>
         <r>
           <rPr>
@@ -1658,7 +1658,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O3" authorId="1" shapeId="0">
+    <comment ref="O3" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0400-000002000000}">
       <text>
         <r>
           <rPr>
@@ -1684,7 +1684,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P3" authorId="2" shapeId="0">
+    <comment ref="P3" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0400-000003000000}">
       <text>
         <r>
           <rPr>
@@ -1757,7 +1757,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q3" authorId="2" shapeId="0">
+    <comment ref="Q3" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0400-000004000000}">
       <text>
         <r>
           <rPr>
@@ -1810,7 +1810,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R3" authorId="2" shapeId="0">
+    <comment ref="R3" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0400-000005000000}">
       <text>
         <r>
           <rPr>
@@ -1843,7 +1843,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P13" authorId="2" shapeId="0">
+    <comment ref="P13" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0400-000006000000}">
       <text>
         <r>
           <rPr>
@@ -1936,7 +1936,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q13" authorId="1" shapeId="0">
+    <comment ref="Q13" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0400-000007000000}">
       <text>
         <r>
           <rPr>
@@ -1961,7 +1961,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R13" authorId="2" shapeId="0">
+    <comment ref="R13" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0400-000008000000}">
       <text>
         <r>
           <rPr>
@@ -2024,7 +2024,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J14" authorId="2" shapeId="0">
+    <comment ref="J14" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0400-000009000000}">
       <text>
         <r>
           <rPr>
@@ -2272,14 +2272,14 @@
 </file>
 
 <file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Gary Goldstein</author>
     <author>Amit Kanudia</author>
     <author>Maurizio Gargiulo</author>
   </authors>
   <commentList>
-    <comment ref="M3" authorId="0" shapeId="0">
+    <comment ref="M3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000001000000}">
       <text>
         <r>
           <rPr>
@@ -2393,7 +2393,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R3" authorId="1" shapeId="0">
+    <comment ref="R3" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0500-000002000000}">
       <text>
         <r>
           <rPr>
@@ -2419,7 +2419,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S3" authorId="2" shapeId="0">
+    <comment ref="S3" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0500-000003000000}">
       <text>
         <r>
           <rPr>
@@ -2492,7 +2492,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T3" authorId="2" shapeId="0">
+    <comment ref="T3" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0500-000004000000}">
       <text>
         <r>
           <rPr>
@@ -2545,7 +2545,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="U3" authorId="2" shapeId="0">
+    <comment ref="U3" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0500-000005000000}">
       <text>
         <r>
           <rPr>
@@ -2578,7 +2578,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S11" authorId="2" shapeId="0">
+    <comment ref="S11" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0500-000006000000}">
       <text>
         <r>
           <rPr>
@@ -2671,7 +2671,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T11" authorId="1" shapeId="0">
+    <comment ref="T11" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0500-000007000000}">
       <text>
         <r>
           <rPr>
@@ -2696,7 +2696,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="U11" authorId="2" shapeId="0">
+    <comment ref="U11" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0500-000008000000}">
       <text>
         <r>
           <rPr>
@@ -2759,7 +2759,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M12" authorId="2" shapeId="0">
+    <comment ref="M12" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0500-000009000000}">
       <text>
         <r>
           <rPr>
@@ -3007,14 +3007,14 @@
 </file>
 
 <file path=xl/comments6.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Gary Goldstein</author>
     <author>Amit Kanudia</author>
     <author>Maurizio Gargiulo</author>
   </authors>
   <commentList>
-    <comment ref="J3" authorId="0" shapeId="0">
+    <comment ref="J3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000001000000}">
       <text>
         <r>
           <rPr>
@@ -3128,7 +3128,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O3" authorId="1" shapeId="0">
+    <comment ref="O3" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0600-000002000000}">
       <text>
         <r>
           <rPr>
@@ -3154,7 +3154,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P3" authorId="2" shapeId="0">
+    <comment ref="P3" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0600-000003000000}">
       <text>
         <r>
           <rPr>
@@ -3227,7 +3227,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q3" authorId="2" shapeId="0">
+    <comment ref="Q3" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0600-000004000000}">
       <text>
         <r>
           <rPr>
@@ -3280,7 +3280,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R3" authorId="2" shapeId="0">
+    <comment ref="R3" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0600-000005000000}">
       <text>
         <r>
           <rPr>
@@ -3313,7 +3313,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P14" authorId="2" shapeId="0">
+    <comment ref="P14" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0600-000006000000}">
       <text>
         <r>
           <rPr>
@@ -3406,7 +3406,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q14" authorId="1" shapeId="0">
+    <comment ref="Q14" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0600-000007000000}">
       <text>
         <r>
           <rPr>
@@ -3431,7 +3431,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R14" authorId="2" shapeId="0">
+    <comment ref="R14" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0600-000008000000}">
       <text>
         <r>
           <rPr>
@@ -3494,7 +3494,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J15" authorId="2" shapeId="0">
+    <comment ref="J15" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0600-000009000000}">
       <text>
         <r>
           <rPr>
@@ -3742,14 +3742,14 @@
 </file>
 
 <file path=xl/comments7.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Gary Goldstein</author>
     <author>Amit Kanudia</author>
     <author>Maurizio Gargiulo</author>
   </authors>
   <commentList>
-    <comment ref="M3" authorId="0" shapeId="0">
+    <comment ref="M3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0700-000001000000}">
       <text>
         <r>
           <rPr>
@@ -3863,7 +3863,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R3" authorId="1" shapeId="0">
+    <comment ref="R3" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0700-000002000000}">
       <text>
         <r>
           <rPr>
@@ -3889,7 +3889,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S3" authorId="2" shapeId="0">
+    <comment ref="S3" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0700-000003000000}">
       <text>
         <r>
           <rPr>
@@ -3962,7 +3962,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T3" authorId="2" shapeId="0">
+    <comment ref="T3" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0700-000004000000}">
       <text>
         <r>
           <rPr>
@@ -4015,7 +4015,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="U3" authorId="2" shapeId="0">
+    <comment ref="U3" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0700-000005000000}">
       <text>
         <r>
           <rPr>
@@ -4048,7 +4048,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S11" authorId="2" shapeId="0">
+    <comment ref="S11" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0700-000006000000}">
       <text>
         <r>
           <rPr>
@@ -4141,7 +4141,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T11" authorId="1" shapeId="0">
+    <comment ref="T11" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0700-000007000000}">
       <text>
         <r>
           <rPr>
@@ -4166,7 +4166,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="U11" authorId="2" shapeId="0">
+    <comment ref="U11" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0700-000008000000}">
       <text>
         <r>
           <rPr>
@@ -4229,7 +4229,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M12" authorId="2" shapeId="0">
+    <comment ref="M12" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0700-000009000000}">
       <text>
         <r>
           <rPr>
@@ -4477,7 +4477,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="679" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="680" uniqueCount="180">
   <si>
     <t>CommName</t>
   </si>
@@ -5014,18 +5014,21 @@
   </si>
   <si>
     <t>CAP2ACT</t>
+  </si>
+  <si>
+    <t>a</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
-    <numFmt numFmtId="171" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="187" formatCode="General_)"/>
-    <numFmt numFmtId="195" formatCode="\Te\x\t"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="General_)"/>
+    <numFmt numFmtId="166" formatCode="\Te\x\t"/>
   </numFmts>
-  <fonts count="33" x14ac:knownFonts="1">
+  <fonts count="29" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -5055,32 +5058,6 @@
       <sz val="10"/>
       <color indexed="12"/>
       <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="8"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="8"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
       <family val="2"/>
     </font>
     <font>
@@ -5562,29 +5539,29 @@
   </borders>
   <cellStyleXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="175">
@@ -5603,20 +5580,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" xfId="4"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="7" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" xfId="7" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" xfId="4"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="7" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" xfId="7" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="9" applyFont="1" applyFill="1"/>
     <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -5625,15 +5602,15 @@
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" xfId="7" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" xfId="7" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" xfId="4" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" xfId="4" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -5652,91 +5629,91 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="10" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="28" fillId="13" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="24" fillId="13" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="4" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="4" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" xfId="7" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" xfId="7" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="187" fontId="13" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="9" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="187" fontId="13" fillId="15" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="9" fillId="15" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="15" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="1" fontId="22" fillId="10" borderId="0" xfId="8" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="1" fontId="20" fillId="8" borderId="5" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="18" fillId="10" borderId="0" xfId="8" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="16" fillId="8" borderId="5" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="1" fontId="20" fillId="8" borderId="6" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="16" fillId="8" borderId="6" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="187" fontId="20" fillId="8" borderId="7" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="16" fillId="8" borderId="7" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="187" fontId="13" fillId="15" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="9" fillId="15" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="187" fontId="13" fillId="15" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="9" fillId="15" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="187" fontId="13" fillId="15" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="9" fillId="15" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="187" fontId="13" fillId="15" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="9" fillId="15" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="187" fontId="13" fillId="15" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="9" fillId="15" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="187" fontId="13" fillId="15" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="9" fillId="15" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="187" fontId="13" fillId="15" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="9" fillId="15" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="187" fontId="13" fillId="15" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="9" fillId="15" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="187" fontId="13" fillId="15" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="9" fillId="15" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="14" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="14" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="14" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="14" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="22" fillId="10" borderId="0" xfId="17" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="30" fillId="7" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="18" fillId="10" borderId="0" xfId="17" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="26" fillId="7" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="17" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
@@ -5749,15 +5726,15 @@
     <xf numFmtId="0" fontId="4" fillId="16" borderId="0" xfId="10" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="17" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5769,18 +5746,18 @@
     <xf numFmtId="1" fontId="0" fillId="17" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="17" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" xfId="3"/>
-    <xf numFmtId="187" fontId="12" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" xfId="3"/>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="1" fontId="0" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="1" fontId="3" fillId="15" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="1" fontId="3" fillId="15" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="14" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="14" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="14" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -5788,70 +5765,70 @@
     <xf numFmtId="0" fontId="3" fillId="14" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="187" fontId="13" fillId="15" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="9" fillId="15" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="187" fontId="13" fillId="15" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="9" fillId="15" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="187" fontId="13" fillId="15" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="9" fillId="15" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="187" fontId="13" fillId="15" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="9" fillId="15" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="187" fontId="13" fillId="15" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="9" fillId="15" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="187" fontId="13" fillId="15" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="9" fillId="15" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="187" fontId="13" fillId="15" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="9" fillId="15" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="22" fillId="10" borderId="12" xfId="17" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="32" fillId="5" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="18" fillId="10" borderId="12" xfId="17" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="28" fillId="5" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="17" applyFont="1" applyFill="1"/>
-    <xf numFmtId="9" fontId="13" fillId="15" borderId="2" xfId="17" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="9" fillId="15" borderId="2" xfId="17" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="13" fillId="15" borderId="5" xfId="17" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="9" fillId="15" borderId="5" xfId="17" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="22" fillId="10" borderId="6" xfId="17" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="9" fontId="13" fillId="15" borderId="18" xfId="17" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="18" fillId="10" borderId="6" xfId="17" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="9" fontId="9" fillId="15" borderId="18" xfId="17" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="13" fillId="15" borderId="0" xfId="17" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="9" fillId="15" borderId="0" xfId="17" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="22" fillId="10" borderId="16" xfId="17" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="9" fontId="22" fillId="10" borderId="2" xfId="17" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="9" fontId="13" fillId="15" borderId="14" xfId="17" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="18" fillId="10" borderId="16" xfId="17" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="9" fontId="18" fillId="10" borderId="2" xfId="17" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="9" fontId="9" fillId="15" borderId="14" xfId="17" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="13" fillId="15" borderId="6" xfId="17" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="9" fillId="15" borderId="6" xfId="17" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="16" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="16" borderId="2" xfId="10" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="28" fillId="13" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="24" fillId="13" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="17" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="16" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="28" fillId="13" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="24" fillId="13" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="22" fillId="10" borderId="13" xfId="17" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="9" fontId="18" fillId="10" borderId="13" xfId="17" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="2" fontId="0" fillId="17" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="10" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -5865,18 +5842,18 @@
     <xf numFmtId="1" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="4" fillId="16" borderId="2" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="16" borderId="2" xfId="9" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="17" fillId="17" borderId="0" xfId="17" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="13" fillId="17" borderId="0" xfId="17" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="4" fillId="16" borderId="5" xfId="10" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="4" fillId="16" borderId="0" xfId="10" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="9" fontId="17" fillId="16" borderId="0" xfId="17" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="13" fillId="16" borderId="0" xfId="17" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" xfId="7"/>
-    <xf numFmtId="9" fontId="21" fillId="9" borderId="0" xfId="7" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" xfId="7"/>
+    <xf numFmtId="9" fontId="17" fillId="9" borderId="0" xfId="7" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="14" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5888,29 +5865,29 @@
     <xf numFmtId="0" fontId="3" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="195" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="195" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="195" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="195" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="195" fontId="25" fillId="4" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="21" fillId="4" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="195" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="195" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="195" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="195" fontId="25" fillId="4" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="21" fillId="4" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="195" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="195" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="195" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="195" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="25">
     <cellStyle name="20% - Accent5" xfId="1" builtinId="46"/>
@@ -5918,26 +5895,26 @@
     <cellStyle name="60% - Accent2" xfId="3" builtinId="36"/>
     <cellStyle name="Accent2" xfId="4" builtinId="33"/>
     <cellStyle name="Calculation" xfId="5" builtinId="22"/>
-    <cellStyle name="Comma 2" xfId="6"/>
+    <cellStyle name="Comma 2" xfId="6" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
     <cellStyle name="Good" xfId="7" builtinId="26"/>
     <cellStyle name="Input" xfId="8" builtinId="20"/>
     <cellStyle name="Neutral" xfId="9" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 10" xfId="10"/>
-    <cellStyle name="Normal 2" xfId="11"/>
-    <cellStyle name="Normal 4" xfId="12"/>
-    <cellStyle name="Normal 4 2" xfId="13"/>
-    <cellStyle name="Normal 8" xfId="14"/>
-    <cellStyle name="Normal 9 2" xfId="15"/>
-    <cellStyle name="Normale_B2020" xfId="16"/>
+    <cellStyle name="Normal 10" xfId="10" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
+    <cellStyle name="Normal 2" xfId="11" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
+    <cellStyle name="Normal 4" xfId="12" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
+    <cellStyle name="Normal 4 2" xfId="13" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
+    <cellStyle name="Normal 8" xfId="14" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
+    <cellStyle name="Normal 9 2" xfId="15" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
+    <cellStyle name="Normale_B2020" xfId="16" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
     <cellStyle name="Percent" xfId="17" builtinId="5"/>
-    <cellStyle name="Percent 2" xfId="18"/>
-    <cellStyle name="Percent 3" xfId="19"/>
-    <cellStyle name="Percent 3 2" xfId="20"/>
-    <cellStyle name="Percent 4" xfId="21"/>
-    <cellStyle name="Percent 4 2" xfId="22"/>
-    <cellStyle name="Percent 5" xfId="23"/>
-    <cellStyle name="Standard_Sce_D_Extraction" xfId="24"/>
+    <cellStyle name="Percent 2" xfId="18" xr:uid="{00000000-0005-0000-0000-000012000000}"/>
+    <cellStyle name="Percent 3" xfId="19" xr:uid="{00000000-0005-0000-0000-000013000000}"/>
+    <cellStyle name="Percent 3 2" xfId="20" xr:uid="{00000000-0005-0000-0000-000014000000}"/>
+    <cellStyle name="Percent 4" xfId="21" xr:uid="{00000000-0005-0000-0000-000015000000}"/>
+    <cellStyle name="Percent 4 2" xfId="22" xr:uid="{00000000-0005-0000-0000-000016000000}"/>
+    <cellStyle name="Percent 5" xfId="23" xr:uid="{00000000-0005-0000-0000-000017000000}"/>
+    <cellStyle name="Standard_Sce_D_Extraction" xfId="24" xr:uid="{00000000-0005-0000-0000-000018000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -8865,11 +8842,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA33"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AA47"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+      <selection activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -10362,6 +10339,11 @@
       <c r="D33" s="73"/>
       <c r="E33" s="116"/>
     </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D47" t="s">
+        <v>179</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -10369,7 +10351,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="B3:O24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -10570,7 +10552,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B3:J5"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
@@ -10608,7 +10590,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B1:R41"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -11534,7 +11516,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B1:T29"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -12198,7 +12180,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="B1:R42"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -13186,7 +13168,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="B1:U42"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -14451,7 +14433,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="B1:R38"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -15449,7 +15431,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="B1:U42"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -16735,7 +16717,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="B1:K32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
